--- a/Desktop/Amir/Verifikasi Termometer/THERMOMETER REPORT UPM TEMPLATE - 13 September 2024 (3).xlsx
+++ b/Desktop/Amir/Verifikasi Termometer/THERMOMETER REPORT UPM TEMPLATE - 13 September 2024 (3).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20397"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F297F5C-293C-43C8-9095-748F387BA9F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AF164-8071-4928-BCB7-55169FDAF3DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Y</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Bilik Kecai, aras 2, Blok I (Medium air)</t>
   </si>
   <si>
-    <t>MSRP23</t>
-  </si>
-  <si>
     <t>11.09.2024</t>
   </si>
   <si>
@@ -269,6 +266,12 @@
   </si>
   <si>
     <t>1510 jam</t>
+  </si>
+  <si>
+    <t>MSRP23030245</t>
+  </si>
+  <si>
+    <t>15.0 - 35.0</t>
   </si>
 </sst>
 </file>
@@ -564,11 +567,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -585,86 +668,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -750,10 +753,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'PKKK009B - 4 poin'!$C$4:$C$7</c:f>
+              <c:f>'PKKK009B - 4 poin'!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>15.1</c:v>
                 </c:pt>
@@ -763,18 +766,15 @@
                 <c:pt idx="2">
                   <c:v>35.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PKKK009B - 4 poin'!$E$4:$E$7</c:f>
+              <c:f>'PKKK009B - 4 poin'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -783,9 +783,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,13 +1306,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1751,7 +1748,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,84 +1765,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="52">
         <v>150187237</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="31">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="55">
         <v>45546</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="41" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -1866,14 +1863,14 @@
       <c r="F9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="19">
         <v>19.600000000000001</v>
@@ -1883,21 +1880,21 @@
       </c>
       <c r="D10" s="20">
         <f>E23*C10+H23</f>
-        <v>19.59761</v>
+        <v>19.567499999999999</v>
       </c>
       <c r="E10" s="20">
         <f>B10-D10</f>
-        <v>2.3900000000018906E-3</v>
+        <v>3.2500000000002416E-2</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="19">
         <v>19.600000000000001</v>
@@ -1907,17 +1904,17 @@
       </c>
       <c r="D11" s="20">
         <f>E23*C11+H23</f>
-        <v>19.59761</v>
+        <v>19.567499999999999</v>
       </c>
       <c r="E11" s="20">
         <f t="shared" ref="E11:E14" si="0">B11-D11</f>
-        <v>2.3900000000018906E-3</v>
+        <v>3.2500000000002416E-2</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -1931,21 +1928,21 @@
       </c>
       <c r="D12" s="20">
         <f>E23*C12+H23</f>
-        <v>19.59761</v>
+        <v>19.567499999999999</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>2.3900000000018906E-3</v>
+        <v>3.2500000000002416E-2</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="19">
         <v>19.600000000000001</v>
@@ -1955,21 +1952,21 @@
       </c>
       <c r="D13" s="20">
         <f>E23*C13+H23</f>
-        <v>19.59761</v>
+        <v>19.567499999999999</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>2.3900000000018906E-3</v>
+        <v>3.2500000000002416E-2</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="19">
         <v>19.600000000000001</v>
@@ -1979,123 +1976,123 @@
       </c>
       <c r="D14" s="20">
         <f>E23*C14+H23</f>
-        <v>19.59761</v>
+        <v>19.567499999999999</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>2.3900000000018906E-3</v>
+        <v>3.2500000000002416E-2</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>181248755</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="37">
+      <c r="D18" s="33"/>
+      <c r="E18" s="35">
         <v>0.1</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="36"/>
-      <c r="C19" s="47">
+      <c r="C19" s="34">
         <v>45359</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="47">
+      <c r="C20" s="34">
         <v>45358</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="36"/>
-      <c r="C21" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="C21" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="48">
-        <v>30245</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="C22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="12">
-        <v>0.99629999999999996</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>2</v>
@@ -2112,20 +2109,20 @@
         <v>3</v>
       </c>
       <c r="H23" s="13">
-        <v>-2.9499999999999998E-2</v>
+        <v>-0.13250000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
@@ -2167,31 +2164,31 @@
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="40"/>
+      <c r="C33" s="26"/>
       <c r="E33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="40"/>
+      <c r="B34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="26"/>
       <c r="E34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E36" s="8" t="s">
@@ -2199,18 +2196,18 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="3" t="s">
@@ -2236,6 +2233,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>
@@ -2252,30 +2273,6 @@
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2288,10 +2285,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2330,7 @@
         <v>-0.1</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" ref="E4:E7" si="0">SUM(C4:D4)</f>
+        <f t="shared" ref="E4:E6" si="0">SUM(C4:D4)</f>
         <v>15</v>
       </c>
     </row>
@@ -2361,20 +2358,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
